--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
